--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_132.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_132.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g33052-d82049-Reviews-Comfort_Inn_Santa_Monica-Santa_Monica_California.html</t>
+  </si>
+  <si>
+    <t>459</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>663</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-Comfort-Inn-Santa-Monica-West-Los-Angeles.h3438.Hotel-Information</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_132.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_132.xlsx
@@ -6739,7 +6739,7 @@
         <v>3958</v>
       </c>
       <c r="B2" t="n">
-        <v>131328</v>
+        <v>162090</v>
       </c>
       <c r="C2" t="s">
         <v>44</v>
@@ -6796,7 +6796,7 @@
         <v>3958</v>
       </c>
       <c r="B3" t="n">
-        <v>131329</v>
+        <v>162091</v>
       </c>
       <c r="C3" t="s">
         <v>53</v>
@@ -6863,7 +6863,7 @@
         <v>3958</v>
       </c>
       <c r="B4" t="n">
-        <v>131330</v>
+        <v>162092</v>
       </c>
       <c r="C4" t="s">
         <v>61</v>
@@ -7184,7 +7184,7 @@
         <v>3958</v>
       </c>
       <c r="B9" t="n">
-        <v>131331</v>
+        <v>162093</v>
       </c>
       <c r="C9" t="s">
         <v>97</v>
@@ -7251,7 +7251,7 @@
         <v>3958</v>
       </c>
       <c r="B10" t="n">
-        <v>131332</v>
+        <v>131375</v>
       </c>
       <c r="C10" t="s">
         <v>105</v>
@@ -7312,7 +7312,7 @@
         <v>3958</v>
       </c>
       <c r="B11" t="n">
-        <v>131333</v>
+        <v>162094</v>
       </c>
       <c r="C11" t="s">
         <v>112</v>
@@ -7379,7 +7379,7 @@
         <v>3958</v>
       </c>
       <c r="B12" t="n">
-        <v>131334</v>
+        <v>162095</v>
       </c>
       <c r="C12" t="s">
         <v>118</v>
@@ -7440,7 +7440,7 @@
         <v>3958</v>
       </c>
       <c r="B13" t="n">
-        <v>131335</v>
+        <v>162096</v>
       </c>
       <c r="C13" t="s">
         <v>125</v>
@@ -7507,7 +7507,7 @@
         <v>3958</v>
       </c>
       <c r="B14" t="n">
-        <v>131336</v>
+        <v>162097</v>
       </c>
       <c r="C14" t="s">
         <v>132</v>
@@ -7574,7 +7574,7 @@
         <v>3958</v>
       </c>
       <c r="B15" t="n">
-        <v>131337</v>
+        <v>162098</v>
       </c>
       <c r="C15" t="s">
         <v>140</v>
@@ -7641,7 +7641,7 @@
         <v>3958</v>
       </c>
       <c r="B16" t="n">
-        <v>131338</v>
+        <v>162099</v>
       </c>
       <c r="C16" t="s">
         <v>146</v>
@@ -7702,7 +7702,7 @@
         <v>3958</v>
       </c>
       <c r="B17" t="n">
-        <v>131339</v>
+        <v>162100</v>
       </c>
       <c r="C17" t="s">
         <v>153</v>
@@ -7769,7 +7769,7 @@
         <v>3958</v>
       </c>
       <c r="B18" t="n">
-        <v>131340</v>
+        <v>162101</v>
       </c>
       <c r="C18" t="s">
         <v>160</v>
@@ -7834,7 +7834,7 @@
         <v>3958</v>
       </c>
       <c r="B19" t="n">
-        <v>131341</v>
+        <v>162102</v>
       </c>
       <c r="C19" t="s">
         <v>167</v>
@@ -7962,7 +7962,7 @@
         <v>3958</v>
       </c>
       <c r="B21" t="n">
-        <v>131342</v>
+        <v>162103</v>
       </c>
       <c r="C21" t="s">
         <v>181</v>
@@ -8029,7 +8029,7 @@
         <v>3958</v>
       </c>
       <c r="B22" t="n">
-        <v>131343</v>
+        <v>162104</v>
       </c>
       <c r="C22" t="s">
         <v>188</v>
@@ -8151,7 +8151,7 @@
         <v>3958</v>
       </c>
       <c r="B24" t="n">
-        <v>131344</v>
+        <v>162105</v>
       </c>
       <c r="C24" t="s">
         <v>201</v>
@@ -8216,7 +8216,7 @@
         <v>3958</v>
       </c>
       <c r="B25" t="n">
-        <v>131345</v>
+        <v>162106</v>
       </c>
       <c r="C25" t="s">
         <v>208</v>
@@ -8277,7 +8277,7 @@
         <v>3958</v>
       </c>
       <c r="B26" t="n">
-        <v>131346</v>
+        <v>162107</v>
       </c>
       <c r="C26" t="s">
         <v>214</v>
@@ -8344,7 +8344,7 @@
         <v>3958</v>
       </c>
       <c r="B27" t="n">
-        <v>131347</v>
+        <v>162108</v>
       </c>
       <c r="C27" t="s">
         <v>221</v>
@@ -8411,7 +8411,7 @@
         <v>3958</v>
       </c>
       <c r="B28" t="n">
-        <v>131348</v>
+        <v>162109</v>
       </c>
       <c r="C28" t="s">
         <v>227</v>
@@ -8472,7 +8472,7 @@
         <v>3958</v>
       </c>
       <c r="B29" t="n">
-        <v>131349</v>
+        <v>162110</v>
       </c>
       <c r="C29" t="s">
         <v>233</v>
@@ -8537,7 +8537,7 @@
         <v>3958</v>
       </c>
       <c r="B30" t="n">
-        <v>131350</v>
+        <v>162111</v>
       </c>
       <c r="C30" t="s">
         <v>239</v>
@@ -8598,7 +8598,7 @@
         <v>3958</v>
       </c>
       <c r="B31" t="n">
-        <v>131351</v>
+        <v>162112</v>
       </c>
       <c r="C31" t="s">
         <v>245</v>
@@ -8659,7 +8659,7 @@
         <v>3958</v>
       </c>
       <c r="B32" t="n">
-        <v>131352</v>
+        <v>162113</v>
       </c>
       <c r="C32" t="s">
         <v>251</v>
@@ -8854,7 +8854,7 @@
         <v>3958</v>
       </c>
       <c r="B35" t="n">
-        <v>131353</v>
+        <v>162114</v>
       </c>
       <c r="C35" t="s">
         <v>272</v>
@@ -9043,7 +9043,7 @@
         <v>3958</v>
       </c>
       <c r="B38" t="n">
-        <v>131354</v>
+        <v>162115</v>
       </c>
       <c r="C38" t="s">
         <v>293</v>
@@ -9177,7 +9177,7 @@
         <v>3958</v>
       </c>
       <c r="B40" t="n">
-        <v>131355</v>
+        <v>162116</v>
       </c>
       <c r="C40" t="s">
         <v>307</v>
@@ -9244,7 +9244,7 @@
         <v>3958</v>
       </c>
       <c r="B41" t="n">
-        <v>131356</v>
+        <v>162117</v>
       </c>
       <c r="C41" t="s">
         <v>314</v>
@@ -9370,7 +9370,7 @@
         <v>3958</v>
       </c>
       <c r="B43" t="n">
-        <v>131357</v>
+        <v>162118</v>
       </c>
       <c r="C43" t="s">
         <v>327</v>
@@ -9431,7 +9431,7 @@
         <v>3958</v>
       </c>
       <c r="B44" t="n">
-        <v>131358</v>
+        <v>162119</v>
       </c>
       <c r="C44" t="s">
         <v>333</v>
@@ -9498,7 +9498,7 @@
         <v>3958</v>
       </c>
       <c r="B45" t="n">
-        <v>131359</v>
+        <v>162120</v>
       </c>
       <c r="C45" t="s">
         <v>340</v>
@@ -9555,7 +9555,7 @@
         <v>3958</v>
       </c>
       <c r="B46" t="n">
-        <v>131360</v>
+        <v>162121</v>
       </c>
       <c r="C46" t="s">
         <v>346</v>
@@ -9683,7 +9683,7 @@
         <v>3958</v>
       </c>
       <c r="B48" t="n">
-        <v>131361</v>
+        <v>162122</v>
       </c>
       <c r="C48" t="s">
         <v>361</v>
@@ -9750,7 +9750,7 @@
         <v>3958</v>
       </c>
       <c r="B49" t="n">
-        <v>131362</v>
+        <v>162123</v>
       </c>
       <c r="C49" t="s">
         <v>367</v>
@@ -9811,7 +9811,7 @@
         <v>3958</v>
       </c>
       <c r="B50" t="n">
-        <v>131363</v>
+        <v>162124</v>
       </c>
       <c r="C50" t="s">
         <v>373</v>
@@ -9872,7 +9872,7 @@
         <v>3958</v>
       </c>
       <c r="B51" t="n">
-        <v>131364</v>
+        <v>162125</v>
       </c>
       <c r="C51" t="s">
         <v>379</v>
@@ -9998,7 +9998,7 @@
         <v>3958</v>
       </c>
       <c r="B53" t="n">
-        <v>131365</v>
+        <v>162126</v>
       </c>
       <c r="C53" t="s">
         <v>393</v>
@@ -10055,7 +10055,7 @@
         <v>3958</v>
       </c>
       <c r="B54" t="n">
-        <v>131366</v>
+        <v>162127</v>
       </c>
       <c r="C54" t="s">
         <v>399</v>
@@ -10122,7 +10122,7 @@
         <v>3958</v>
       </c>
       <c r="B55" t="n">
-        <v>131367</v>
+        <v>162128</v>
       </c>
       <c r="C55" t="s">
         <v>406</v>
@@ -10445,7 +10445,7 @@
         <v>3958</v>
       </c>
       <c r="B60" t="n">
-        <v>131368</v>
+        <v>162129</v>
       </c>
       <c r="C60" t="s">
         <v>441</v>
@@ -10516,7 +10516,7 @@
         <v>3958</v>
       </c>
       <c r="B61" t="n">
-        <v>131369</v>
+        <v>162130</v>
       </c>
       <c r="C61" t="s">
         <v>446</v>
@@ -10577,7 +10577,7 @@
         <v>3958</v>
       </c>
       <c r="B62" t="n">
-        <v>131370</v>
+        <v>162131</v>
       </c>
       <c r="C62" t="s">
         <v>452</v>
@@ -10764,7 +10764,7 @@
         <v>3958</v>
       </c>
       <c r="B65" t="n">
-        <v>131371</v>
+        <v>162132</v>
       </c>
       <c r="C65" t="s">
         <v>474</v>
@@ -10825,7 +10825,7 @@
         <v>3958</v>
       </c>
       <c r="B66" t="n">
-        <v>131372</v>
+        <v>162133</v>
       </c>
       <c r="C66" t="s">
         <v>481</v>
@@ -10957,7 +10957,7 @@
         <v>3958</v>
       </c>
       <c r="B68" t="n">
-        <v>131373</v>
+        <v>162134</v>
       </c>
       <c r="C68" t="s">
         <v>494</v>
@@ -11024,7 +11024,7 @@
         <v>3958</v>
       </c>
       <c r="B69" t="n">
-        <v>131374</v>
+        <v>162135</v>
       </c>
       <c r="C69" t="s">
         <v>500</v>
@@ -11085,7 +11085,7 @@
         <v>3958</v>
       </c>
       <c r="B70" t="n">
-        <v>131375</v>
+        <v>162136</v>
       </c>
       <c r="C70" t="s">
         <v>506</v>
@@ -11152,7 +11152,7 @@
         <v>3958</v>
       </c>
       <c r="B71" t="n">
-        <v>131376</v>
+        <v>162137</v>
       </c>
       <c r="C71" t="s">
         <v>513</v>
@@ -11213,7 +11213,7 @@
         <v>3958</v>
       </c>
       <c r="B72" t="n">
-        <v>131377</v>
+        <v>162138</v>
       </c>
       <c r="C72" t="s">
         <v>519</v>
@@ -11280,7 +11280,7 @@
         <v>3958</v>
       </c>
       <c r="B73" t="n">
-        <v>131378</v>
+        <v>162139</v>
       </c>
       <c r="C73" t="s">
         <v>526</v>
@@ -11412,7 +11412,7 @@
         <v>3958</v>
       </c>
       <c r="B75" t="n">
-        <v>131379</v>
+        <v>162140</v>
       </c>
       <c r="C75" t="s">
         <v>539</v>
@@ -11473,7 +11473,7 @@
         <v>3958</v>
       </c>
       <c r="B76" t="n">
-        <v>131380</v>
+        <v>162141</v>
       </c>
       <c r="C76" t="s">
         <v>546</v>
@@ -11538,7 +11538,7 @@
         <v>3958</v>
       </c>
       <c r="B77" t="n">
-        <v>131381</v>
+        <v>162142</v>
       </c>
       <c r="C77" t="s">
         <v>551</v>
@@ -11668,7 +11668,7 @@
         <v>3958</v>
       </c>
       <c r="B79" t="n">
-        <v>131382</v>
+        <v>162143</v>
       </c>
       <c r="C79" t="s">
         <v>566</v>
@@ -11800,7 +11800,7 @@
         <v>3958</v>
       </c>
       <c r="B81" t="n">
-        <v>131383</v>
+        <v>162144</v>
       </c>
       <c r="C81" t="s">
         <v>583</v>
@@ -11867,7 +11867,7 @@
         <v>3958</v>
       </c>
       <c r="B82" t="n">
-        <v>131384</v>
+        <v>162145</v>
       </c>
       <c r="C82" t="s">
         <v>588</v>
@@ -12068,7 +12068,7 @@
         <v>3958</v>
       </c>
       <c r="B85" t="n">
-        <v>131385</v>
+        <v>162146</v>
       </c>
       <c r="C85" t="s">
         <v>609</v>
@@ -12200,7 +12200,7 @@
         <v>3958</v>
       </c>
       <c r="B87" t="n">
-        <v>131386</v>
+        <v>162147</v>
       </c>
       <c r="C87" t="s">
         <v>623</v>
@@ -12261,7 +12261,7 @@
         <v>3958</v>
       </c>
       <c r="B88" t="n">
-        <v>131387</v>
+        <v>162148</v>
       </c>
       <c r="C88" t="s">
         <v>629</v>
@@ -12322,7 +12322,7 @@
         <v>3958</v>
       </c>
       <c r="B89" t="n">
-        <v>131388</v>
+        <v>162149</v>
       </c>
       <c r="C89" t="s">
         <v>636</v>
@@ -12513,7 +12513,7 @@
         <v>3958</v>
       </c>
       <c r="B92" t="n">
-        <v>131389</v>
+        <v>162150</v>
       </c>
       <c r="C92" t="s">
         <v>654</v>
@@ -12637,7 +12637,7 @@
         <v>3958</v>
       </c>
       <c r="B94" t="n">
-        <v>131390</v>
+        <v>162151</v>
       </c>
       <c r="C94" t="s">
         <v>667</v>
@@ -12708,7 +12708,7 @@
         <v>3958</v>
       </c>
       <c r="B95" t="n">
-        <v>131391</v>
+        <v>162152</v>
       </c>
       <c r="C95" t="s">
         <v>677</v>
@@ -12769,7 +12769,7 @@
         <v>3958</v>
       </c>
       <c r="B96" t="n">
-        <v>131392</v>
+        <v>162153</v>
       </c>
       <c r="C96" t="s">
         <v>684</v>
@@ -12891,7 +12891,7 @@
         <v>3958</v>
       </c>
       <c r="B98" t="n">
-        <v>131393</v>
+        <v>162154</v>
       </c>
       <c r="C98" t="s">
         <v>695</v>
@@ -12960,7 +12960,7 @@
         <v>3958</v>
       </c>
       <c r="B99" t="n">
-        <v>131394</v>
+        <v>162155</v>
       </c>
       <c r="C99" t="s">
         <v>704</v>
@@ -13025,7 +13025,7 @@
         <v>3958</v>
       </c>
       <c r="B100" t="n">
-        <v>131395</v>
+        <v>162156</v>
       </c>
       <c r="C100" t="s">
         <v>710</v>
@@ -13092,7 +13092,7 @@
         <v>3958</v>
       </c>
       <c r="B101" t="n">
-        <v>131396</v>
+        <v>162157</v>
       </c>
       <c r="C101" t="s">
         <v>717</v>
@@ -13163,7 +13163,7 @@
         <v>3958</v>
       </c>
       <c r="B102" t="n">
-        <v>131397</v>
+        <v>162158</v>
       </c>
       <c r="C102" t="s">
         <v>727</v>
@@ -13224,7 +13224,7 @@
         <v>3958</v>
       </c>
       <c r="B103" t="n">
-        <v>131398</v>
+        <v>162159</v>
       </c>
       <c r="C103" t="s">
         <v>733</v>
@@ -13295,7 +13295,7 @@
         <v>3958</v>
       </c>
       <c r="B104" t="n">
-        <v>131399</v>
+        <v>162160</v>
       </c>
       <c r="C104" t="s">
         <v>740</v>
@@ -13421,7 +13421,7 @@
         <v>3958</v>
       </c>
       <c r="B106" t="n">
-        <v>131400</v>
+        <v>162161</v>
       </c>
       <c r="C106" t="s">
         <v>755</v>
@@ -13547,7 +13547,7 @@
         <v>3958</v>
       </c>
       <c r="B108" t="n">
-        <v>131401</v>
+        <v>162162</v>
       </c>
       <c r="C108" t="s">
         <v>770</v>
@@ -13614,7 +13614,7 @@
         <v>3958</v>
       </c>
       <c r="B109" t="n">
-        <v>131402</v>
+        <v>162163</v>
       </c>
       <c r="C109" t="s">
         <v>777</v>
@@ -13752,7 +13752,7 @@
         <v>3958</v>
       </c>
       <c r="B111" t="n">
-        <v>131403</v>
+        <v>162164</v>
       </c>
       <c r="C111" t="s">
         <v>791</v>
@@ -13809,7 +13809,7 @@
         <v>3958</v>
       </c>
       <c r="B112" t="n">
-        <v>131404</v>
+        <v>162165</v>
       </c>
       <c r="C112" t="s">
         <v>797</v>
@@ -13927,7 +13927,7 @@
         <v>3958</v>
       </c>
       <c r="B114" t="n">
-        <v>131405</v>
+        <v>162166</v>
       </c>
       <c r="C114" t="s">
         <v>810</v>
@@ -14181,7 +14181,7 @@
         <v>3958</v>
       </c>
       <c r="B118" t="n">
-        <v>131406</v>
+        <v>162167</v>
       </c>
       <c r="C118" t="s">
         <v>846</v>
@@ -14313,7 +14313,7 @@
         <v>3958</v>
       </c>
       <c r="B120" t="n">
-        <v>131407</v>
+        <v>162168</v>
       </c>
       <c r="C120" t="s">
         <v>861</v>
@@ -14378,7 +14378,7 @@
         <v>3958</v>
       </c>
       <c r="B121" t="n">
-        <v>131408</v>
+        <v>162169</v>
       </c>
       <c r="C121" t="s">
         <v>868</v>
@@ -14506,7 +14506,7 @@
         <v>3958</v>
       </c>
       <c r="B123" t="n">
-        <v>131409</v>
+        <v>162170</v>
       </c>
       <c r="C123" t="s">
         <v>882</v>
@@ -14571,7 +14571,7 @@
         <v>3958</v>
       </c>
       <c r="B124" t="n">
-        <v>131410</v>
+        <v>162171</v>
       </c>
       <c r="C124" t="s">
         <v>888</v>
@@ -14640,7 +14640,7 @@
         <v>3958</v>
       </c>
       <c r="B125" t="n">
-        <v>131411</v>
+        <v>162172</v>
       </c>
       <c r="C125" t="s">
         <v>897</v>
@@ -14705,7 +14705,7 @@
         <v>3958</v>
       </c>
       <c r="B126" t="n">
-        <v>131412</v>
+        <v>162173</v>
       </c>
       <c r="C126" t="s">
         <v>904</v>
@@ -14845,7 +14845,7 @@
         <v>3958</v>
       </c>
       <c r="B128" t="n">
-        <v>131413</v>
+        <v>162174</v>
       </c>
       <c r="C128" t="s">
         <v>922</v>
@@ -14983,7 +14983,7 @@
         <v>3958</v>
       </c>
       <c r="B130" t="n">
-        <v>131414</v>
+        <v>162175</v>
       </c>
       <c r="C130" t="s">
         <v>938</v>
@@ -15044,7 +15044,7 @@
         <v>3958</v>
       </c>
       <c r="B131" t="n">
-        <v>131415</v>
+        <v>162176</v>
       </c>
       <c r="C131" t="s">
         <v>944</v>
@@ -15111,7 +15111,7 @@
         <v>3958</v>
       </c>
       <c r="B132" t="n">
-        <v>131416</v>
+        <v>162177</v>
       </c>
       <c r="C132" t="s">
         <v>951</v>
@@ -15182,7 +15182,7 @@
         <v>3958</v>
       </c>
       <c r="B133" t="n">
-        <v>131417</v>
+        <v>162178</v>
       </c>
       <c r="C133" t="s">
         <v>960</v>
@@ -15253,7 +15253,7 @@
         <v>3958</v>
       </c>
       <c r="B134" t="n">
-        <v>131418</v>
+        <v>162179</v>
       </c>
       <c r="C134" t="s">
         <v>967</v>
@@ -15320,7 +15320,7 @@
         <v>3958</v>
       </c>
       <c r="B135" t="n">
-        <v>131419</v>
+        <v>162180</v>
       </c>
       <c r="C135" t="s">
         <v>974</v>
@@ -15454,7 +15454,7 @@
         <v>3958</v>
       </c>
       <c r="B137" t="n">
-        <v>131420</v>
+        <v>162181</v>
       </c>
       <c r="C137" t="s">
         <v>988</v>
@@ -15525,7 +15525,7 @@
         <v>3958</v>
       </c>
       <c r="B138" t="n">
-        <v>131421</v>
+        <v>162182</v>
       </c>
       <c r="C138" t="s">
         <v>997</v>
@@ -15590,7 +15590,7 @@
         <v>3958</v>
       </c>
       <c r="B139" t="n">
-        <v>131422</v>
+        <v>162183</v>
       </c>
       <c r="C139" t="s">
         <v>1003</v>
@@ -15657,7 +15657,7 @@
         <v>3958</v>
       </c>
       <c r="B140" t="n">
-        <v>131423</v>
+        <v>162184</v>
       </c>
       <c r="C140" t="s">
         <v>1010</v>
@@ -15724,7 +15724,7 @@
         <v>3958</v>
       </c>
       <c r="B141" t="n">
-        <v>131424</v>
+        <v>162185</v>
       </c>
       <c r="C141" t="s">
         <v>1017</v>
@@ -15789,7 +15789,7 @@
         <v>3958</v>
       </c>
       <c r="B142" t="n">
-        <v>131425</v>
+        <v>162186</v>
       </c>
       <c r="C142" t="s">
         <v>1023</v>
@@ -15856,7 +15856,7 @@
         <v>3958</v>
       </c>
       <c r="B143" t="n">
-        <v>131426</v>
+        <v>162187</v>
       </c>
       <c r="C143" t="s">
         <v>1029</v>
@@ -15996,7 +15996,7 @@
         <v>3958</v>
       </c>
       <c r="B145" t="n">
-        <v>131427</v>
+        <v>162188</v>
       </c>
       <c r="C145" t="s">
         <v>1045</v>
@@ -16067,7 +16067,7 @@
         <v>3958</v>
       </c>
       <c r="B146" t="n">
-        <v>131428</v>
+        <v>162189</v>
       </c>
       <c r="C146" t="s">
         <v>1053</v>
@@ -16207,7 +16207,7 @@
         <v>3958</v>
       </c>
       <c r="B148" t="n">
-        <v>131429</v>
+        <v>162190</v>
       </c>
       <c r="C148" t="s">
         <v>1069</v>
@@ -16282,7 +16282,7 @@
         <v>3958</v>
       </c>
       <c r="B149" t="n">
-        <v>131430</v>
+        <v>162191</v>
       </c>
       <c r="C149" t="s">
         <v>1076</v>
@@ -16351,7 +16351,7 @@
         <v>3958</v>
       </c>
       <c r="B150" t="n">
-        <v>131431</v>
+        <v>131457</v>
       </c>
       <c r="C150" t="s">
         <v>1083</v>
@@ -16491,7 +16491,7 @@
         <v>3958</v>
       </c>
       <c r="B152" t="n">
-        <v>131432</v>
+        <v>162192</v>
       </c>
       <c r="C152" t="s">
         <v>1097</v>
@@ -16562,7 +16562,7 @@
         <v>3958</v>
       </c>
       <c r="B153" t="n">
-        <v>131433</v>
+        <v>162193</v>
       </c>
       <c r="C153" t="s">
         <v>1106</v>
@@ -16627,7 +16627,7 @@
         <v>3958</v>
       </c>
       <c r="B154" t="n">
-        <v>131434</v>
+        <v>162194</v>
       </c>
       <c r="C154" t="s">
         <v>1114</v>
@@ -16777,7 +16777,7 @@
         <v>3958</v>
       </c>
       <c r="B156" t="n">
-        <v>131435</v>
+        <v>162195</v>
       </c>
       <c r="C156" t="s">
         <v>1130</v>
@@ -16852,7 +16852,7 @@
         <v>3958</v>
       </c>
       <c r="B157" t="n">
-        <v>131436</v>
+        <v>162196</v>
       </c>
       <c r="C157" t="s">
         <v>1137</v>
@@ -16992,7 +16992,7 @@
         <v>3958</v>
       </c>
       <c r="B159" t="n">
-        <v>131437</v>
+        <v>162197</v>
       </c>
       <c r="C159" t="s">
         <v>1155</v>
@@ -17067,7 +17067,7 @@
         <v>3958</v>
       </c>
       <c r="B160" t="n">
-        <v>131438</v>
+        <v>162198</v>
       </c>
       <c r="C160" t="s">
         <v>1165</v>
@@ -17138,7 +17138,7 @@
         <v>3958</v>
       </c>
       <c r="B161" t="n">
-        <v>131439</v>
+        <v>162199</v>
       </c>
       <c r="C161" t="s">
         <v>1172</v>
@@ -17213,7 +17213,7 @@
         <v>3958</v>
       </c>
       <c r="B162" t="n">
-        <v>131331</v>
+        <v>131375</v>
       </c>
       <c r="C162" t="s">
         <v>105</v>
@@ -17288,7 +17288,7 @@
         <v>3958</v>
       </c>
       <c r="B163" t="n">
-        <v>131440</v>
+        <v>162200</v>
       </c>
       <c r="C163" t="s">
         <v>1190</v>
@@ -17438,7 +17438,7 @@
         <v>3958</v>
       </c>
       <c r="B165" t="n">
-        <v>131441</v>
+        <v>162201</v>
       </c>
       <c r="C165" t="s">
         <v>1207</v>
@@ -17503,7 +17503,7 @@
         <v>3958</v>
       </c>
       <c r="B166" t="n">
-        <v>131442</v>
+        <v>162202</v>
       </c>
       <c r="C166" t="s">
         <v>1216</v>
@@ -17714,7 +17714,7 @@
         <v>3958</v>
       </c>
       <c r="B169" t="n">
-        <v>131443</v>
+        <v>162203</v>
       </c>
       <c r="C169" t="s">
         <v>1239</v>
@@ -17789,7 +17789,7 @@
         <v>3958</v>
       </c>
       <c r="B170" t="n">
-        <v>131444</v>
+        <v>162204</v>
       </c>
       <c r="C170" t="s">
         <v>1248</v>
@@ -17864,7 +17864,7 @@
         <v>3958</v>
       </c>
       <c r="B171" t="n">
-        <v>131445</v>
+        <v>162205</v>
       </c>
       <c r="C171" t="s">
         <v>1257</v>
@@ -18014,7 +18014,7 @@
         <v>3958</v>
       </c>
       <c r="B173" t="n">
-        <v>131446</v>
+        <v>162206</v>
       </c>
       <c r="C173" t="s">
         <v>1272</v>
@@ -18225,7 +18225,7 @@
         <v>3958</v>
       </c>
       <c r="B176" t="n">
-        <v>131447</v>
+        <v>162207</v>
       </c>
       <c r="C176" t="s">
         <v>1299</v>
@@ -18375,7 +18375,7 @@
         <v>3958</v>
       </c>
       <c r="B178" t="n">
-        <v>131448</v>
+        <v>162208</v>
       </c>
       <c r="C178" t="s">
         <v>1316</v>
@@ -18450,7 +18450,7 @@
         <v>3958</v>
       </c>
       <c r="B179" t="n">
-        <v>131449</v>
+        <v>162209</v>
       </c>
       <c r="C179" t="s">
         <v>1323</v>
@@ -18525,7 +18525,7 @@
         <v>3958</v>
       </c>
       <c r="B180" t="n">
-        <v>131450</v>
+        <v>162210</v>
       </c>
       <c r="C180" t="s">
         <v>1332</v>
@@ -18600,7 +18600,7 @@
         <v>3958</v>
       </c>
       <c r="B181" t="n">
-        <v>131451</v>
+        <v>162211</v>
       </c>
       <c r="C181" t="s">
         <v>1340</v>
@@ -18750,7 +18750,7 @@
         <v>3958</v>
       </c>
       <c r="B183" t="n">
-        <v>131452</v>
+        <v>162212</v>
       </c>
       <c r="C183" t="s">
         <v>1359</v>
@@ -18825,7 +18825,7 @@
         <v>3958</v>
       </c>
       <c r="B184" t="n">
-        <v>131453</v>
+        <v>162213</v>
       </c>
       <c r="C184" t="s">
         <v>1366</v>
@@ -18900,7 +18900,7 @@
         <v>3958</v>
       </c>
       <c r="B185" t="n">
-        <v>131454</v>
+        <v>162214</v>
       </c>
       <c r="C185" t="s">
         <v>1373</v>
@@ -18975,7 +18975,7 @@
         <v>3958</v>
       </c>
       <c r="B186" t="n">
-        <v>131455</v>
+        <v>162215</v>
       </c>
       <c r="C186" t="s">
         <v>1383</v>
@@ -19348,7 +19348,7 @@
         <v>3958</v>
       </c>
       <c r="B191" t="n">
-        <v>131456</v>
+        <v>162216</v>
       </c>
       <c r="C191" t="s">
         <v>1420</v>
@@ -19423,7 +19423,7 @@
         <v>3958</v>
       </c>
       <c r="B192" t="n">
-        <v>131457</v>
+        <v>162217</v>
       </c>
       <c r="C192" t="s">
         <v>1429</v>
@@ -19498,7 +19498,7 @@
         <v>3958</v>
       </c>
       <c r="B193" t="n">
-        <v>131458</v>
+        <v>162218</v>
       </c>
       <c r="C193" t="s">
         <v>1436</v>
@@ -19573,7 +19573,7 @@
         <v>3958</v>
       </c>
       <c r="B194" t="n">
-        <v>131459</v>
+        <v>162219</v>
       </c>
       <c r="C194" t="s">
         <v>1445</v>
@@ -19648,7 +19648,7 @@
         <v>3958</v>
       </c>
       <c r="B195" t="n">
-        <v>131460</v>
+        <v>162220</v>
       </c>
       <c r="C195" t="s">
         <v>1454</v>
@@ -19719,7 +19719,7 @@
         <v>3958</v>
       </c>
       <c r="B196" t="n">
-        <v>131461</v>
+        <v>162221</v>
       </c>
       <c r="C196" t="s">
         <v>1461</v>
@@ -19869,7 +19869,7 @@
         <v>3958</v>
       </c>
       <c r="B198" t="n">
-        <v>131462</v>
+        <v>162222</v>
       </c>
       <c r="C198" t="s">
         <v>1476</v>
@@ -19944,7 +19944,7 @@
         <v>3958</v>
       </c>
       <c r="B199" t="n">
-        <v>131463</v>
+        <v>162223</v>
       </c>
       <c r="C199" t="s">
         <v>1486</v>
@@ -20094,7 +20094,7 @@
         <v>3958</v>
       </c>
       <c r="B201" t="n">
-        <v>131464</v>
+        <v>162224</v>
       </c>
       <c r="C201" t="s">
         <v>1503</v>
@@ -20244,7 +20244,7 @@
         <v>3958</v>
       </c>
       <c r="B203" t="n">
-        <v>131465</v>
+        <v>162225</v>
       </c>
       <c r="C203" t="s">
         <v>1517</v>
@@ -20319,7 +20319,7 @@
         <v>3958</v>
       </c>
       <c r="B204" t="n">
-        <v>131466</v>
+        <v>162226</v>
       </c>
       <c r="C204" t="s">
         <v>1526</v>
@@ -20394,7 +20394,7 @@
         <v>3958</v>
       </c>
       <c r="B205" t="n">
-        <v>131467</v>
+        <v>162227</v>
       </c>
       <c r="C205" t="s">
         <v>1532</v>
@@ -20469,7 +20469,7 @@
         <v>3958</v>
       </c>
       <c r="B206" t="n">
-        <v>131468</v>
+        <v>162228</v>
       </c>
       <c r="C206" t="s">
         <v>1540</v>
@@ -20690,7 +20690,7 @@
         <v>3958</v>
       </c>
       <c r="B209" t="n">
-        <v>131469</v>
+        <v>162229</v>
       </c>
       <c r="C209" t="s">
         <v>1564</v>
@@ -20765,7 +20765,7 @@
         <v>3958</v>
       </c>
       <c r="B210" t="n">
-        <v>131470</v>
+        <v>162230</v>
       </c>
       <c r="C210" t="s">
         <v>1573</v>
@@ -20840,7 +20840,7 @@
         <v>3958</v>
       </c>
       <c r="B211" t="n">
-        <v>131471</v>
+        <v>162231</v>
       </c>
       <c r="C211" t="s">
         <v>1580</v>
@@ -20905,7 +20905,7 @@
         <v>3958</v>
       </c>
       <c r="B212" t="n">
-        <v>131472</v>
+        <v>162232</v>
       </c>
       <c r="C212" t="s">
         <v>1588</v>
@@ -20980,7 +20980,7 @@
         <v>3958</v>
       </c>
       <c r="B213" t="n">
-        <v>131473</v>
+        <v>162233</v>
       </c>
       <c r="C213" t="s">
         <v>1596</v>
@@ -21051,7 +21051,7 @@
         <v>3958</v>
       </c>
       <c r="B214" t="n">
-        <v>131474</v>
+        <v>162234</v>
       </c>
       <c r="C214" t="s">
         <v>1603</v>
@@ -21201,7 +21201,7 @@
         <v>3958</v>
       </c>
       <c r="B216" t="n">
-        <v>131475</v>
+        <v>162235</v>
       </c>
       <c r="C216" t="s">
         <v>1617</v>
@@ -21272,7 +21272,7 @@
         <v>3958</v>
       </c>
       <c r="B217" t="n">
-        <v>131476</v>
+        <v>162236</v>
       </c>
       <c r="C217" t="s">
         <v>1624</v>
@@ -21347,7 +21347,7 @@
         <v>3958</v>
       </c>
       <c r="B218" t="n">
-        <v>131477</v>
+        <v>162237</v>
       </c>
       <c r="C218" t="s">
         <v>1632</v>
@@ -21414,7 +21414,7 @@
         <v>3958</v>
       </c>
       <c r="B219" t="n">
-        <v>131478</v>
+        <v>162238</v>
       </c>
       <c r="C219" t="s">
         <v>1638</v>
@@ -21489,7 +21489,7 @@
         <v>3958</v>
       </c>
       <c r="B220" t="n">
-        <v>131479</v>
+        <v>162239</v>
       </c>
       <c r="C220" t="s">
         <v>1647</v>
@@ -21556,7 +21556,7 @@
         <v>3958</v>
       </c>
       <c r="B221" t="n">
-        <v>131480</v>
+        <v>162240</v>
       </c>
       <c r="C221" t="s">
         <v>1653</v>
@@ -21627,7 +21627,7 @@
         <v>3958</v>
       </c>
       <c r="B222" t="n">
-        <v>131481</v>
+        <v>162241</v>
       </c>
       <c r="C222" t="s">
         <v>1659</v>
@@ -21698,7 +21698,7 @@
         <v>3958</v>
       </c>
       <c r="B223" t="n">
-        <v>131482</v>
+        <v>162242</v>
       </c>
       <c r="C223" t="s">
         <v>1665</v>
@@ -21773,7 +21773,7 @@
         <v>3958</v>
       </c>
       <c r="B224" t="n">
-        <v>131483</v>
+        <v>162243</v>
       </c>
       <c r="C224" t="s">
         <v>1674</v>
@@ -21844,7 +21844,7 @@
         <v>3958</v>
       </c>
       <c r="B225" t="n">
-        <v>131484</v>
+        <v>162244</v>
       </c>
       <c r="C225" t="s">
         <v>1680</v>
@@ -21915,7 +21915,7 @@
         <v>3958</v>
       </c>
       <c r="B226" t="n">
-        <v>131485</v>
+        <v>162245</v>
       </c>
       <c r="C226" t="s">
         <v>1687</v>
@@ -22057,7 +22057,7 @@
         <v>3958</v>
       </c>
       <c r="B228" t="n">
-        <v>131486</v>
+        <v>162246</v>
       </c>
       <c r="C228" t="s">
         <v>1701</v>
@@ -22199,7 +22199,7 @@
         <v>3958</v>
       </c>
       <c r="B230" t="n">
-        <v>131487</v>
+        <v>162247</v>
       </c>
       <c r="C230" t="s">
         <v>1714</v>
@@ -22270,7 +22270,7 @@
         <v>3958</v>
       </c>
       <c r="B231" t="n">
-        <v>131488</v>
+        <v>162248</v>
       </c>
       <c r="C231" t="s">
         <v>1720</v>
@@ -22341,7 +22341,7 @@
         <v>3958</v>
       </c>
       <c r="B232" t="n">
-        <v>131489</v>
+        <v>162249</v>
       </c>
       <c r="C232" t="s">
         <v>1727</v>
@@ -22412,7 +22412,7 @@
         <v>3958</v>
       </c>
       <c r="B233" t="n">
-        <v>131490</v>
+        <v>162250</v>
       </c>
       <c r="C233" t="s">
         <v>1734</v>
@@ -22483,7 +22483,7 @@
         <v>3958</v>
       </c>
       <c r="B234" t="n">
-        <v>131491</v>
+        <v>162251</v>
       </c>
       <c r="C234" t="s">
         <v>1742</v>
@@ -22550,7 +22550,7 @@
         <v>3958</v>
       </c>
       <c r="B235" t="n">
-        <v>131492</v>
+        <v>162252</v>
       </c>
       <c r="C235" t="s">
         <v>1750</v>
@@ -22684,7 +22684,7 @@
         <v>3958</v>
       </c>
       <c r="B237" t="n">
-        <v>131493</v>
+        <v>162253</v>
       </c>
       <c r="C237" t="s">
         <v>1763</v>
@@ -22751,7 +22751,7 @@
         <v>3958</v>
       </c>
       <c r="B238" t="n">
-        <v>131494</v>
+        <v>162254</v>
       </c>
       <c r="C238" t="s">
         <v>1769</v>
@@ -22818,7 +22818,7 @@
         <v>3958</v>
       </c>
       <c r="B239" t="n">
-        <v>131495</v>
+        <v>162255</v>
       </c>
       <c r="C239" t="s">
         <v>1775</v>
@@ -22864,7 +22864,7 @@
         <v>3958</v>
       </c>
       <c r="B240" t="n">
-        <v>131496</v>
+        <v>162256</v>
       </c>
       <c r="C240" t="s">
         <v>1779</v>
@@ -22931,7 +22931,7 @@
         <v>3958</v>
       </c>
       <c r="B241" t="n">
-        <v>131497</v>
+        <v>162257</v>
       </c>
       <c r="C241" t="s">
         <v>1786</v>
@@ -23002,7 +23002,7 @@
         <v>3958</v>
       </c>
       <c r="B242" t="n">
-        <v>131498</v>
+        <v>162258</v>
       </c>
       <c r="C242" t="s">
         <v>1793</v>
@@ -23069,7 +23069,7 @@
         <v>3958</v>
       </c>
       <c r="B243" t="n">
-        <v>131499</v>
+        <v>162259</v>
       </c>
       <c r="C243" t="s">
         <v>1799</v>
@@ -23140,7 +23140,7 @@
         <v>3958</v>
       </c>
       <c r="B244" t="n">
-        <v>131500</v>
+        <v>162260</v>
       </c>
       <c r="C244" t="s">
         <v>1806</v>
@@ -23211,7 +23211,7 @@
         <v>3958</v>
       </c>
       <c r="B245" t="n">
-        <v>131501</v>
+        <v>162261</v>
       </c>
       <c r="C245" t="s">
         <v>1814</v>
@@ -23282,7 +23282,7 @@
         <v>3958</v>
       </c>
       <c r="B246" t="n">
-        <v>131502</v>
+        <v>162262</v>
       </c>
       <c r="C246" t="s">
         <v>1822</v>
@@ -23353,7 +23353,7 @@
         <v>3958</v>
       </c>
       <c r="B247" t="n">
-        <v>131503</v>
+        <v>162263</v>
       </c>
       <c r="C247" t="s">
         <v>1829</v>
@@ -23424,7 +23424,7 @@
         <v>3958</v>
       </c>
       <c r="B248" t="n">
-        <v>131504</v>
+        <v>162264</v>
       </c>
       <c r="C248" t="s">
         <v>1835</v>
@@ -23485,7 +23485,7 @@
         <v>3958</v>
       </c>
       <c r="B249" t="n">
-        <v>131505</v>
+        <v>162265</v>
       </c>
       <c r="C249" t="s">
         <v>1842</v>
@@ -23556,7 +23556,7 @@
         <v>3958</v>
       </c>
       <c r="B250" t="n">
-        <v>131506</v>
+        <v>162266</v>
       </c>
       <c r="C250" t="s">
         <v>1850</v>
@@ -23627,7 +23627,7 @@
         <v>3958</v>
       </c>
       <c r="B251" t="n">
-        <v>131507</v>
+        <v>162267</v>
       </c>
       <c r="C251" t="s">
         <v>1857</v>
@@ -23688,7 +23688,7 @@
         <v>3958</v>
       </c>
       <c r="B252" t="n">
-        <v>131508</v>
+        <v>162268</v>
       </c>
       <c r="C252" t="s">
         <v>1865</v>
@@ -23759,7 +23759,7 @@
         <v>3958</v>
       </c>
       <c r="B253" t="n">
-        <v>131509</v>
+        <v>162269</v>
       </c>
       <c r="C253" t="s">
         <v>1872</v>
@@ -23830,7 +23830,7 @@
         <v>3958</v>
       </c>
       <c r="B254" t="n">
-        <v>131510</v>
+        <v>162270</v>
       </c>
       <c r="C254" t="s">
         <v>1880</v>
@@ -23901,7 +23901,7 @@
         <v>3958</v>
       </c>
       <c r="B255" t="n">
-        <v>131511</v>
+        <v>162271</v>
       </c>
       <c r="C255" t="s">
         <v>1887</v>
@@ -23972,7 +23972,7 @@
         <v>3958</v>
       </c>
       <c r="B256" t="n">
-        <v>131512</v>
+        <v>162272</v>
       </c>
       <c r="C256" t="s">
         <v>1894</v>
@@ -24043,7 +24043,7 @@
         <v>3958</v>
       </c>
       <c r="B257" t="n">
-        <v>131513</v>
+        <v>162273</v>
       </c>
       <c r="C257" t="s">
         <v>1901</v>
@@ -24114,7 +24114,7 @@
         <v>3958</v>
       </c>
       <c r="B258" t="n">
-        <v>131514</v>
+        <v>162274</v>
       </c>
       <c r="C258" t="s">
         <v>1908</v>
@@ -24185,7 +24185,7 @@
         <v>3958</v>
       </c>
       <c r="B259" t="n">
-        <v>131515</v>
+        <v>162275</v>
       </c>
       <c r="C259" t="s">
         <v>1915</v>
@@ -24256,7 +24256,7 @@
         <v>3958</v>
       </c>
       <c r="B260" t="n">
-        <v>131516</v>
+        <v>162276</v>
       </c>
       <c r="C260" t="s">
         <v>1922</v>
@@ -24327,7 +24327,7 @@
         <v>3958</v>
       </c>
       <c r="B261" t="n">
-        <v>131517</v>
+        <v>162277</v>
       </c>
       <c r="C261" t="s">
         <v>1930</v>
@@ -24398,7 +24398,7 @@
         <v>3958</v>
       </c>
       <c r="B262" t="n">
-        <v>131518</v>
+        <v>162278</v>
       </c>
       <c r="C262" t="s">
         <v>1938</v>
@@ -24469,7 +24469,7 @@
         <v>3958</v>
       </c>
       <c r="B263" t="n">
-        <v>131519</v>
+        <v>162279</v>
       </c>
       <c r="C263" t="s">
         <v>1945</v>
@@ -24540,7 +24540,7 @@
         <v>3958</v>
       </c>
       <c r="B264" t="n">
-        <v>131520</v>
+        <v>162280</v>
       </c>
       <c r="C264" t="s">
         <v>1953</v>
@@ -24597,7 +24597,7 @@
         <v>3958</v>
       </c>
       <c r="B265" t="n">
-        <v>131521</v>
+        <v>162281</v>
       </c>
       <c r="C265" t="s">
         <v>1960</v>
@@ -24666,7 +24666,7 @@
         <v>3958</v>
       </c>
       <c r="B266" t="n">
-        <v>131522</v>
+        <v>162282</v>
       </c>
       <c r="C266" t="s">
         <v>1968</v>
@@ -24737,7 +24737,7 @@
         <v>3958</v>
       </c>
       <c r="B267" t="n">
-        <v>131523</v>
+        <v>162283</v>
       </c>
       <c r="C267" t="s">
         <v>1976</v>
@@ -24792,7 +24792,7 @@
         <v>3958</v>
       </c>
       <c r="B268" t="n">
-        <v>131524</v>
+        <v>162284</v>
       </c>
       <c r="C268" t="s">
         <v>1982</v>
@@ -24909,7 +24909,7 @@
         <v>3958</v>
       </c>
       <c r="B270" t="n">
-        <v>131525</v>
+        <v>162285</v>
       </c>
       <c r="C270" t="s">
         <v>1991</v>
@@ -25037,7 +25037,7 @@
         <v>3958</v>
       </c>
       <c r="B272" t="n">
-        <v>131526</v>
+        <v>162286</v>
       </c>
       <c r="C272" t="s">
         <v>2005</v>
@@ -25102,7 +25102,7 @@
         <v>3958</v>
       </c>
       <c r="B273" t="n">
-        <v>131527</v>
+        <v>162287</v>
       </c>
       <c r="C273" t="s">
         <v>2011</v>
@@ -25167,7 +25167,7 @@
         <v>3958</v>
       </c>
       <c r="B274" t="n">
-        <v>131528</v>
+        <v>162288</v>
       </c>
       <c r="C274" t="s">
         <v>2017</v>
@@ -25279,7 +25279,7 @@
         <v>3958</v>
       </c>
       <c r="B276" t="n">
-        <v>131529</v>
+        <v>162289</v>
       </c>
       <c r="C276" t="s">
         <v>2025</v>
